--- a/SchedulingData/static8/pso/scheduling1_16.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_16.xlsx
@@ -466,93 +466,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.1</v>
+        <v>71.64</v>
       </c>
       <c r="E2" t="n">
-        <v>27.28</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>109.36</v>
+        <v>51.1</v>
       </c>
       <c r="E3" t="n">
-        <v>23.364</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109.36</v>
+        <v>51.1</v>
       </c>
       <c r="D4" t="n">
-        <v>165.26</v>
+        <v>136.46</v>
       </c>
       <c r="E4" t="n">
-        <v>19.884</v>
+        <v>22.144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>165.26</v>
+        <v>136.46</v>
       </c>
       <c r="D5" t="n">
-        <v>256.36</v>
+        <v>183.46</v>
       </c>
       <c r="E5" t="n">
-        <v>14.364</v>
+        <v>18.584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>83.08</v>
+        <v>74.36</v>
       </c>
       <c r="E6" t="n">
-        <v>25.352</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="7">
@@ -561,625 +561,625 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.22</v>
+        <v>49.1</v>
       </c>
       <c r="E7" t="n">
-        <v>26.568</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46.22</v>
+        <v>71.64</v>
       </c>
       <c r="D8" t="n">
-        <v>106.22</v>
+        <v>127</v>
       </c>
       <c r="E8" t="n">
-        <v>22.188</v>
+        <v>23.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83.08</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>138.58</v>
+        <v>87.7</v>
       </c>
       <c r="E9" t="n">
-        <v>20.932</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>138.58</v>
+        <v>127</v>
       </c>
       <c r="D10" t="n">
-        <v>183.92</v>
+        <v>206.5</v>
       </c>
       <c r="E10" t="n">
-        <v>18.028</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="D11" t="n">
-        <v>79.7</v>
+        <v>137.04</v>
       </c>
       <c r="E11" t="n">
-        <v>26.16</v>
+        <v>21.556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>48.42</v>
+        <v>82.3</v>
       </c>
       <c r="E12" t="n">
-        <v>26.348</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>256.36</v>
+        <v>49.1</v>
       </c>
       <c r="D13" t="n">
-        <v>335.66</v>
+        <v>106.2</v>
       </c>
       <c r="E13" t="n">
-        <v>11.524</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>183.92</v>
+        <v>137.04</v>
       </c>
       <c r="D14" t="n">
-        <v>236.22</v>
+        <v>203.68</v>
       </c>
       <c r="E14" t="n">
-        <v>14.428</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>236.22</v>
+        <v>106.2</v>
       </c>
       <c r="D15" t="n">
-        <v>285.48</v>
+        <v>178.9</v>
       </c>
       <c r="E15" t="n">
-        <v>10.632</v>
+        <v>19.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>48.42</v>
+        <v>206.5</v>
       </c>
       <c r="D16" t="n">
-        <v>101.02</v>
+        <v>246.84</v>
       </c>
       <c r="E16" t="n">
-        <v>22.708</v>
+        <v>17.316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>285.48</v>
+        <v>178.9</v>
       </c>
       <c r="D17" t="n">
-        <v>357.66</v>
+        <v>242.48</v>
       </c>
       <c r="E17" t="n">
-        <v>6.544</v>
+        <v>16.312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>79.7</v>
+        <v>183.46</v>
       </c>
       <c r="D18" t="n">
-        <v>145.74</v>
+        <v>227.76</v>
       </c>
       <c r="E18" t="n">
-        <v>22.156</v>
+        <v>15.284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106.22</v>
+        <v>82.3</v>
       </c>
       <c r="D19" t="n">
-        <v>173.62</v>
+        <v>146.34</v>
       </c>
       <c r="E19" t="n">
-        <v>16.588</v>
+        <v>22.616</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>335.66</v>
+        <v>242.48</v>
       </c>
       <c r="D20" t="n">
-        <v>376</v>
+        <v>303.82</v>
       </c>
       <c r="E20" t="n">
-        <v>8.619999999999999</v>
+        <v>12.308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>145.74</v>
+        <v>146.34</v>
       </c>
       <c r="D21" t="n">
-        <v>227.54</v>
+        <v>190.62</v>
       </c>
       <c r="E21" t="n">
-        <v>18.076</v>
+        <v>19.808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>101.02</v>
+        <v>190.62</v>
       </c>
       <c r="D22" t="n">
-        <v>152.84</v>
+        <v>236.82</v>
       </c>
       <c r="E22" t="n">
-        <v>19.156</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>376</v>
+        <v>87.7</v>
       </c>
       <c r="D23" t="n">
-        <v>443.2</v>
+        <v>153.1</v>
       </c>
       <c r="E23" t="n">
-        <v>4.54</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>227.54</v>
+        <v>236.82</v>
       </c>
       <c r="D24" t="n">
-        <v>318.88</v>
+        <v>293.9</v>
       </c>
       <c r="E24" t="n">
-        <v>13.032</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>443.2</v>
+        <v>227.76</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4</v>
+        <v>297.54</v>
       </c>
       <c r="E25" t="n">
-        <v>1.02</v>
+        <v>10.916</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>514.4</v>
+        <v>293.9</v>
       </c>
       <c r="D26" t="n">
-        <v>589.16</v>
+        <v>393.2</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>318.88</v>
+        <v>203.68</v>
       </c>
       <c r="D27" t="n">
-        <v>377.82</v>
+        <v>249.3</v>
       </c>
       <c r="E27" t="n">
-        <v>9.247999999999999</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>152.84</v>
+        <v>246.84</v>
       </c>
       <c r="D28" t="n">
-        <v>211.04</v>
+        <v>322.84</v>
       </c>
       <c r="E28" t="n">
-        <v>14.956</v>
+        <v>12.336</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>393.2</v>
       </c>
       <c r="D29" t="n">
-        <v>51.1</v>
+        <v>472.74</v>
       </c>
       <c r="E29" t="n">
-        <v>26.08</v>
+        <v>3.036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>173.62</v>
+        <v>249.3</v>
       </c>
       <c r="D30" t="n">
-        <v>240.1</v>
+        <v>299.82</v>
       </c>
       <c r="E30" t="n">
-        <v>12.54</v>
+        <v>9.648</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>377.82</v>
+        <v>472.74</v>
       </c>
       <c r="D31" t="n">
-        <v>422.12</v>
+        <v>563.17</v>
       </c>
       <c r="E31" t="n">
-        <v>5.948</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>211.04</v>
+        <v>563.17</v>
       </c>
       <c r="D32" t="n">
-        <v>278.24</v>
+        <v>622.97</v>
       </c>
       <c r="E32" t="n">
-        <v>10.876</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>278.24</v>
+        <v>303.82</v>
       </c>
       <c r="D33" t="n">
-        <v>349.24</v>
+        <v>367.78</v>
       </c>
       <c r="E33" t="n">
-        <v>5.896</v>
+        <v>9.032</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>422.12</v>
+        <v>299.82</v>
       </c>
       <c r="D34" t="n">
-        <v>461</v>
+        <v>370.28</v>
       </c>
       <c r="E34" t="n">
-        <v>2.7</v>
+        <v>5.712</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>51.1</v>
+        <v>153.1</v>
       </c>
       <c r="D35" t="n">
-        <v>101.4</v>
+        <v>220.2</v>
       </c>
       <c r="E35" t="n">
-        <v>22.18</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>101.4</v>
+        <v>220.2</v>
       </c>
       <c r="D36" t="n">
-        <v>166.18</v>
+        <v>269.9</v>
       </c>
       <c r="E36" t="n">
-        <v>17.812</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>166.18</v>
+        <v>269.9</v>
       </c>
       <c r="D37" t="n">
-        <v>223.16</v>
+        <v>324.12</v>
       </c>
       <c r="E37" t="n">
-        <v>14.224</v>
+        <v>8.747999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>461</v>
+        <v>322.84</v>
       </c>
       <c r="D38" t="n">
-        <v>552</v>
+        <v>394.74</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>8.256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>552</v>
+        <v>370.28</v>
       </c>
       <c r="D39" t="n">
-        <v>622.96</v>
+        <v>441.68</v>
       </c>
       <c r="E39" t="n">
-        <v>26.064</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="40">
@@ -1188,112 +1188,112 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>349.24</v>
+        <v>441.68</v>
       </c>
       <c r="D40" t="n">
-        <v>422.34</v>
+        <v>518.1</v>
       </c>
       <c r="E40" t="n">
-        <v>1.696</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>422.34</v>
+        <v>297.54</v>
       </c>
       <c r="D41" t="n">
-        <v>500.85</v>
+        <v>343.98</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>6.912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>223.16</v>
+        <v>622.97</v>
       </c>
       <c r="D42" t="n">
-        <v>299.66</v>
+        <v>672.35</v>
       </c>
       <c r="E42" t="n">
-        <v>10.664</v>
+        <v>22.412</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>500.85</v>
+        <v>367.78</v>
       </c>
       <c r="D43" t="n">
-        <v>565.5700000000001</v>
+        <v>447.48</v>
       </c>
       <c r="E43" t="n">
-        <v>26.688</v>
+        <v>5.132</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>299.66</v>
+        <v>447.48</v>
       </c>
       <c r="D44" t="n">
-        <v>356.26</v>
+        <v>489.76</v>
       </c>
       <c r="E44" t="n">
-        <v>8.103999999999999</v>
+        <v>1.544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>565.5700000000001</v>
+        <v>489.76</v>
       </c>
       <c r="D45" t="n">
-        <v>641.91</v>
+        <v>558.67</v>
       </c>
       <c r="E45" t="n">
-        <v>22.684</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>240.1</v>
+        <v>558.67</v>
       </c>
       <c r="D46" t="n">
-        <v>300.66</v>
+        <v>605.59</v>
       </c>
       <c r="E46" t="n">
-        <v>8.603999999999999</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="47">
@@ -1321,74 +1321,74 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>356.26</v>
+        <v>343.98</v>
       </c>
       <c r="D47" t="n">
-        <v>411.78</v>
+        <v>383.7</v>
       </c>
       <c r="E47" t="n">
-        <v>4.672</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>300.66</v>
+        <v>518.1</v>
       </c>
       <c r="D48" t="n">
-        <v>339</v>
+        <v>568</v>
       </c>
       <c r="E48" t="n">
-        <v>5.9</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>589.16</v>
+        <v>324.12</v>
       </c>
       <c r="D49" t="n">
-        <v>649.14</v>
+        <v>381.04</v>
       </c>
       <c r="E49" t="n">
-        <v>26.192</v>
+        <v>5.196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>641.91</v>
+        <v>605.59</v>
       </c>
       <c r="D50" t="n">
-        <v>716.4299999999999</v>
+        <v>650.0700000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>19.852</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="51">
@@ -1397,131 +1397,131 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>339</v>
+        <v>650.0700000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>403.18</v>
+        <v>700.99</v>
       </c>
       <c r="E51" t="n">
-        <v>3.092</v>
+        <v>20.248</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>403.18</v>
+        <v>568</v>
       </c>
       <c r="D52" t="n">
-        <v>498.3</v>
+        <v>615.92</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>22.548</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>498.3</v>
+        <v>381.04</v>
       </c>
       <c r="D53" t="n">
-        <v>549.8200000000001</v>
+        <v>414.48</v>
       </c>
       <c r="E53" t="n">
-        <v>26.048</v>
+        <v>2.492</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>622.96</v>
+        <v>394.74</v>
       </c>
       <c r="D54" t="n">
-        <v>687.0599999999999</v>
+        <v>446.62</v>
       </c>
       <c r="E54" t="n">
-        <v>22.264</v>
+        <v>4.208</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>549.8200000000001</v>
+        <v>414.48</v>
       </c>
       <c r="D55" t="n">
-        <v>600.66</v>
+        <v>465.12</v>
       </c>
       <c r="E55" t="n">
-        <v>23.084</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>357.66</v>
+        <v>465.12</v>
       </c>
       <c r="D56" t="n">
-        <v>420.2</v>
+        <v>537.0599999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>2.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>411.78</v>
+        <v>537.0599999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>452.2</v>
+        <v>589.0599999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>1.76</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="58">
@@ -1530,36 +1530,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>452.2</v>
+        <v>383.7</v>
       </c>
       <c r="D58" t="n">
-        <v>525.48</v>
+        <v>454.64</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>716.4299999999999</v>
+        <v>454.64</v>
       </c>
       <c r="D59" t="n">
-        <v>771.27</v>
+        <v>539.21</v>
       </c>
       <c r="E59" t="n">
-        <v>15.988</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>420.2</v>
+        <v>672.35</v>
       </c>
       <c r="D60" t="n">
-        <v>502.2</v>
+        <v>717.77</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="61">
@@ -1587,55 +1587,55 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>502.2</v>
+        <v>717.77</v>
       </c>
       <c r="D61" t="n">
-        <v>543.84</v>
+        <v>772.87</v>
       </c>
       <c r="E61" t="n">
-        <v>27.536</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>687.0599999999999</v>
+        <v>615.92</v>
       </c>
       <c r="D62" t="n">
-        <v>735.3</v>
+        <v>693.66</v>
       </c>
       <c r="E62" t="n">
-        <v>19.56</v>
+        <v>18.404</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>649.14</v>
+        <v>589.0599999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>728.6</v>
+        <v>650.36</v>
       </c>
       <c r="E63" t="n">
-        <v>23.336</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="64">
@@ -1644,36 +1644,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>600.66</v>
+        <v>700.99</v>
       </c>
       <c r="D64" t="n">
-        <v>676.78</v>
+        <v>770.83</v>
       </c>
       <c r="E64" t="n">
-        <v>20.092</v>
+        <v>17.344</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>525.48</v>
+        <v>446.62</v>
       </c>
       <c r="D65" t="n">
-        <v>597.1799999999999</v>
+        <v>524.52</v>
       </c>
       <c r="E65" t="n">
-        <v>25.98</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="66">
@@ -1682,74 +1682,74 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>728.6</v>
+        <v>524.52</v>
       </c>
       <c r="D66" t="n">
-        <v>792.48</v>
+        <v>606.3</v>
       </c>
       <c r="E66" t="n">
-        <v>20.528</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>792.48</v>
+        <v>539.21</v>
       </c>
       <c r="D67" t="n">
-        <v>865.9400000000001</v>
+        <v>610.13</v>
       </c>
       <c r="E67" t="n">
-        <v>17.252</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>676.78</v>
+        <v>693.66</v>
       </c>
       <c r="D68" t="n">
-        <v>742.8200000000001</v>
+        <v>757</v>
       </c>
       <c r="E68" t="n">
-        <v>17.068</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>771.27</v>
+        <v>606.3</v>
       </c>
       <c r="D69" t="n">
-        <v>864.97</v>
+        <v>676.26</v>
       </c>
       <c r="E69" t="n">
-        <v>12.208</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="70">
@@ -1758,36 +1758,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>735.3</v>
+        <v>650.36</v>
       </c>
       <c r="D70" t="n">
-        <v>814.8</v>
+        <v>701.96</v>
       </c>
       <c r="E70" t="n">
-        <v>14.22</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>543.84</v>
+        <v>676.26</v>
       </c>
       <c r="D71" t="n">
-        <v>604.16</v>
+        <v>754.16</v>
       </c>
       <c r="E71" t="n">
-        <v>24.104</v>
+        <v>22.944</v>
       </c>
     </row>
   </sheetData>
